--- a/SP_Sklad/TempLate/ReturnSupplier.xlsx
+++ b/SP_Sklad/TempLate/ReturnSupplier.xlsx
@@ -816,11 +816,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:J84"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1032,776 +1030,6 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
